--- a/Data/labour.xlsx
+++ b/Data/labour.xlsx
@@ -1,17 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28016"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandr/Documents/GIT/Privatization-in-Ukraine.-1992-2015/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="375" windowWidth="15015" windowHeight="5100" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="460" windowWidth="20020" windowHeight="11680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="labour of ukraine" sheetId="1" r:id="rId1"/>
-    <sheet name="invormation" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="information" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -56,7 +68,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Agrarian economy and market. Ivanov R, Dusanovsky S, Bilan Є. - Ternopil: "Zbruch", 2003.. - 305 pages. </t>
@@ -78,7 +89,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
       <t>).</t>
@@ -91,14 +101,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -207,35 +224,40 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -273,14 +295,14 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -307,14 +329,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -341,9 +364,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -516,20 +540,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" thickBot="1">
+    <row r="1" spans="1:3" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -540,7 +564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19.5" thickBot="1">
+    <row r="2" spans="1:3" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -551,7 +575,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19.5" thickBot="1">
+    <row r="3" spans="1:3" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -562,7 +586,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="19.5" thickBot="1">
+    <row r="4" spans="1:3" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -573,7 +597,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="19.5" thickBot="1">
+    <row r="5" spans="1:3" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -584,7 +608,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="19.5" thickBot="1">
+    <row r="6" spans="1:3" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,7 +619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="19.5" thickBot="1">
+    <row r="7" spans="1:3" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -606,7 +630,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="19.5" thickBot="1">
+    <row r="8" spans="1:3" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,7 +641,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="19.5" thickBot="1">
+    <row r="9" spans="1:3" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -628,7 +652,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="19.5" thickBot="1">
+    <row r="10" spans="1:3" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -639,7 +663,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="19.5" thickBot="1">
+    <row r="11" spans="1:3" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -650,7 +674,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="19.5" thickBot="1">
+    <row r="12" spans="1:3" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -661,7 +685,7 @@
         <v>6.22</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="19.5" thickBot="1">
+    <row r="13" spans="1:3" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -679,27 +703,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" ht="15.75">
+    <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75">
+    <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
     </row>
-    <row r="4" spans="1:1" ht="15.75">
+    <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -707,16 +731,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>